--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -668,7 +668,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1028,7 +1028,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1106,7 +1106,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1194,7 +1194,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1234,7 +1234,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1257,7 +1257,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1504,7 +1504,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1560,7 +1560,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1593,7 +1593,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1605,7 +1605,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1633,7 +1633,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1713,7 +1713,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1763,7 +1763,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1796,7 +1796,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1833,7 +1833,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1855,7 +1855,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4619,7 +4619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>239</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>298</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>324</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>350</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>360</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>383</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>424</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>437</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>442</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>444</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>447</v>
       </c>
@@ -13293,12 +13293,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP91">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Consciousness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
